--- a/biology/Zoologie/Grallaire_d'Amazonie/Grallaire_d'Amazonie.xlsx
+++ b/biology/Zoologie/Grallaire_d'Amazonie/Grallaire_d'Amazonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_d%27Amazonie</t>
+          <t>Grallaire_d'Amazonie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grallaire d'Amazonie (Hylopezus berlepschi) est une espèce d'oiseaux de la famille des Grallariidae vivant en Amérique du Sud.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_d%27Amazonie</t>
+          <t>Grallaire_d'Amazonie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 46 g à 54 g[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 46 g à 54 g.
 L'espèce est décrite par le zoologiste autrichien Carl Edward Hellmayr en 1903.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_d%27Amazonie</t>
+          <t>Grallaire_d'Amazonie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Bolivie, au Brésil et au Pérou[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Bolivie, au Brésil et au Pérou.
 Son habitat naturel est subtropical ou des forêts tropicales humides[réf. nécessaire].
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grallaire_d%27Amazonie</t>
+          <t>Grallaire_d'Amazonie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 janvier 2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 janvier 2020) :
 sous-espèce Hylopezus berlepschi berlepschi (Hellmayr, 1903) - Sud du Brésil amazonien, Sud-Est du Pérou et Nord de la Bolivie
 sous-espèce Hylopezus berlepschi yessupi (Carriker, 1930) - Est et centre du Pérou, Ouest amazonien au Brésil</t>
         </is>
